--- a/data/trans_orig/P62-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>511567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>490894</v>
+        <v>489235</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>532750</v>
+        <v>532147</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7873112342058259</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.755494926964401</v>
+        <v>0.7529421229723561</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8199125185656116</v>
+        <v>0.8189831020282705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>436</v>
@@ -765,19 +765,19 @@
         <v>450924</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>417332</v>
+        <v>419055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>481454</v>
+        <v>485088</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3884868713620129</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3595457290712208</v>
+        <v>0.3610304757781609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4147892617875591</v>
+        <v>0.4179201688366618</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>974</v>
@@ -786,19 +786,19 @@
         <v>962492</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>923040</v>
+        <v>924326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1003444</v>
+        <v>1004289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5316209492878898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5098302505033662</v>
+        <v>0.5105405193024704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5542405677653546</v>
+        <v>0.5547070519472876</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>138198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117015</v>
+        <v>117618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158871</v>
+        <v>160530</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2126887657941741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1800874814343883</v>
+        <v>0.1810168979717294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2445050730355988</v>
+        <v>0.247057877027643</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>707</v>
@@ -836,19 +836,19 @@
         <v>709796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>679266</v>
+        <v>675632</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>743388</v>
+        <v>741665</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6115131286379871</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.585210738212441</v>
+        <v>0.5820798311633382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6404542709287793</v>
+        <v>0.6389695242218396</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>842</v>
@@ -857,19 +857,19 @@
         <v>847993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>807041</v>
+        <v>806196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>887445</v>
+        <v>886159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4683790507121102</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4457594322346454</v>
+        <v>0.4452929480527124</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4901697494966339</v>
+        <v>0.4894594806975296</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>169449</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148503</v>
+        <v>149253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>192041</v>
+        <v>191857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2999819837651672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2629007735655419</v>
+        <v>0.2642276746460024</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3399761016225744</v>
+        <v>0.3396507152650087</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -982,19 +982,19 @@
         <v>85972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69524</v>
+        <v>69329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106819</v>
+        <v>105554</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08590591251347507</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06947100611758664</v>
+        <v>0.06927568578043289</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1067373743107036</v>
+        <v>0.1054732233240868</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -1003,19 +1003,19 @@
         <v>255421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227201</v>
+        <v>225365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>287783</v>
+        <v>285112</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1631424764718882</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1451178386334054</v>
+        <v>0.1439450827511469</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1838128475889363</v>
+        <v>0.1821064992619996</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>395416</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372824</v>
+        <v>373008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416362</v>
+        <v>415612</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7000180162348327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.660023898377426</v>
+        <v>0.6603492847349913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7370992264344582</v>
+        <v>0.7357723253539976</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>911</v>
@@ -1053,19 +1053,19 @@
         <v>914795</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>893948</v>
+        <v>895213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>931243</v>
+        <v>931438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9140940874865249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8932626256892964</v>
+        <v>0.8945267766759132</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9305289938824134</v>
+        <v>0.9307243142195671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1311</v>
@@ -1074,19 +1074,19 @@
         <v>1310210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1277848</v>
+        <v>1280519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1338430</v>
+        <v>1340266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8368575235281118</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8161871524110637</v>
+        <v>0.8178935007380004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8548821613665946</v>
+        <v>0.8560549172488531</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>60662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49604</v>
+        <v>48839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73652</v>
+        <v>73112</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4191909806848345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.342776103921947</v>
+        <v>0.3374919878202642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5089528051012595</v>
+        <v>0.5052230403589044</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1199,19 +1199,19 @@
         <v>41234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30226</v>
+        <v>30735</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54248</v>
+        <v>53310</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2228220563363911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1633339191779567</v>
+        <v>0.1660863207803563</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2931472449274289</v>
+        <v>0.2880792445706776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -1220,19 +1220,19 @@
         <v>101897</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82284</v>
+        <v>84927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118011</v>
+        <v>120002</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3089956332441877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2495208369466404</v>
+        <v>0.2575369178639235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3578626903837654</v>
+        <v>0.363898948422308</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>84051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>71061</v>
+        <v>71601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95109</v>
+        <v>95874</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5808090193151655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4910471948987404</v>
+        <v>0.4947769596410956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.657223896078053</v>
+        <v>0.6625080121797358</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -1270,19 +1270,19 @@
         <v>143820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130806</v>
+        <v>131744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154828</v>
+        <v>154319</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7771779436636089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7068527550725713</v>
+        <v>0.7119207554293224</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8366660808220433</v>
+        <v>0.8339136792196438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>215</v>
@@ -1291,19 +1291,19 @@
         <v>227870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>211756</v>
+        <v>209765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>247483</v>
+        <v>244840</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6910043667558123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6421373096162346</v>
+        <v>0.6361010515776919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7504791630533596</v>
+        <v>0.7424630821360765</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>741679</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.545615780097335</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>558</v>
@@ -1416,19 +1416,19 @@
         <v>578130</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2463755773799956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1318</v>
@@ -1437,19 +1437,19 @@
         <v>1319809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3561388928180357</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>617664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>582569</v>
+        <v>580441</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>650521</v>
+        <v>650196</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4543842199026649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4285669050275182</v>
+        <v>0.427000847589141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4785552573563461</v>
+        <v>0.478316366868248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1750</v>
@@ -1487,19 +1487,19 @@
         <v>1768411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1726528</v>
+        <v>1725222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1811152</v>
+        <v>1805813</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7536244226200044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.735775673088387</v>
+        <v>0.7352193626169249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7718389910035673</v>
+        <v>0.7695637615078265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2368</v>
@@ -1508,19 +1508,19 @@
         <v>2386074</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2329698</v>
+        <v>2330518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2445346</v>
+        <v>2442316</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6438611071819642</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6286486494376349</v>
+        <v>0.6288697353972486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6598552399960039</v>
+        <v>0.6590376672271135</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>550111</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>524270</v>
+        <v>524619</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>578208</v>
+        <v>576599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7002470416019936</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6673546196844203</v>
+        <v>0.6677979427749234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7360133673747585</v>
+        <v>0.7339642433947426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>503</v>
@@ -1872,19 +1872,19 @@
         <v>537920</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>499827</v>
+        <v>501794</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>571836</v>
+        <v>574832</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4541465006330228</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4219862408013206</v>
+        <v>0.4236464201151467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4827811740383489</v>
+        <v>0.4853103780374657</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1004</v>
@@ -1893,19 +1893,19 @@
         <v>1088030</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1044916</v>
+        <v>1044480</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1131278</v>
+        <v>1134024</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5522833699076943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5303987609411375</v>
+        <v>0.5301773694651056</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5742359670482663</v>
+        <v>0.5756295870103365</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>235484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>207387</v>
+        <v>208996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>261325</v>
+        <v>260976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2997529583980064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2639866326252415</v>
+        <v>0.2660357566052572</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3326453803155798</v>
+        <v>0.3322020572250766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>601</v>
@@ -1943,19 +1943,19 @@
         <v>646543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>612627</v>
+        <v>609631</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>684636</v>
+        <v>682669</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5458534993669772</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5172188259616507</v>
+        <v>0.5146896219625344</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5780137591986793</v>
+        <v>0.5763535798848534</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>827</v>
@@ -1964,19 +1964,19 @@
         <v>882028</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>838780</v>
+        <v>836034</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>925142</v>
+        <v>925578</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4477166300923056</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4257640329517337</v>
+        <v>0.4243704129896634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4696012390588625</v>
+        <v>0.4698226305348943</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>275453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>246487</v>
+        <v>246869</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306379</v>
+        <v>306777</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2671875746566709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2390905091061059</v>
+        <v>0.2394612760329355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2971850135412469</v>
+        <v>0.2975716733469176</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -2089,19 +2089,19 @@
         <v>171612</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148379</v>
+        <v>145430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>200273</v>
+        <v>195770</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1474001411355888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1274451686390249</v>
+        <v>0.1249120493875838</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1720170884362297</v>
+        <v>0.1681500001526085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>399</v>
@@ -2110,19 +2110,19 @@
         <v>447066</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>404195</v>
+        <v>408079</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>486244</v>
+        <v>489679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.203656245460631</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1841271470386133</v>
+        <v>0.1858964769756608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2215033627155919</v>
+        <v>0.2230683155975113</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>755483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>724557</v>
+        <v>724159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>784449</v>
+        <v>784067</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7328124253433291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7028149864587533</v>
+        <v>0.7024283266530824</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7609094908938943</v>
+        <v>0.7605387239670646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>929</v>
@@ -2160,19 +2160,19 @@
         <v>992649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963988</v>
+        <v>968491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1015882</v>
+        <v>1018831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8525998588644111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8279829115637702</v>
+        <v>0.8318499998473914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.872554831360975</v>
+        <v>0.8750879506124162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1654</v>
@@ -2181,19 +2181,19 @@
         <v>1748131</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1708953</v>
+        <v>1705518</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1791002</v>
+        <v>1787118</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7963437545393689</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7784966372844081</v>
+        <v>0.7769316844024886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8158728529613867</v>
+        <v>0.8141035230243392</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>45626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33236</v>
+        <v>33727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58270</v>
+        <v>59838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2820050030722251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2054270868107979</v>
+        <v>0.2084645034135128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3601561132149546</v>
+        <v>0.3698511900475053</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -2306,19 +2306,19 @@
         <v>35576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25444</v>
+        <v>24766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48583</v>
+        <v>49211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1604647669857772</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1147662478936271</v>
+        <v>0.1117068671837963</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2191324207180079</v>
+        <v>0.2219665079193926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -2327,19 +2327,19 @@
         <v>81201</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62938</v>
+        <v>65611</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99204</v>
+        <v>100790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2117405545710189</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1641166288280744</v>
+        <v>0.1710862155147606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2586844315510028</v>
+        <v>0.2628186083319721</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>116164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103520</v>
+        <v>101952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128554</v>
+        <v>128063</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7179949969277749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6398438867850454</v>
+        <v>0.6301488099524947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7945729131892022</v>
+        <v>0.7915354965864871</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -2377,19 +2377,19 @@
         <v>186129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173122</v>
+        <v>172494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>196261</v>
+        <v>196939</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8395352330142227</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7808675792819907</v>
+        <v>0.7780334920806076</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8852337521063727</v>
+        <v>0.8882931328162038</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>281</v>
@@ -2398,19 +2398,19 @@
         <v>302294</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>284291</v>
+        <v>282705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>320557</v>
+        <v>317884</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7882594454289811</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7413155684489974</v>
+        <v>0.7371813916680279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.835883371171926</v>
+        <v>0.8289137844852396</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>871189</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>825827</v>
+        <v>828952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>916459</v>
+        <v>920074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4403680264445722</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.417438384029848</v>
+        <v>0.4190181397877811</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4632508168491946</v>
+        <v>0.4650782105302971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>686</v>
@@ -2523,19 +2523,19 @@
         <v>745108</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>699745</v>
+        <v>700533</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>792257</v>
+        <v>795710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2898768621668031</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2722289081453363</v>
+        <v>0.2725354317387478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3082199852475466</v>
+        <v>0.3095631556805039</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1472</v>
@@ -2544,19 +2544,19 @@
         <v>1616297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1548859</v>
+        <v>1548387</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1680942</v>
+        <v>1681458</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3553277878827089</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3405020068278011</v>
+        <v>0.3403983589744798</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3695393808368247</v>
+        <v>0.369652865395546</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1107132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1061862</v>
+        <v>1058247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1152494</v>
+        <v>1149369</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5596319735554278</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5367491831508056</v>
+        <v>0.534921789469703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5825616159701522</v>
+        <v>0.5809818602122189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1699</v>
@@ -2594,19 +2594,19 @@
         <v>1825320</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1778171</v>
+        <v>1774718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1870683</v>
+        <v>1869895</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7101231378331969</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6917800147524534</v>
+        <v>0.6904368443194961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7277710918546639</v>
+        <v>0.7274645682612523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2762</v>
@@ -2615,19 +2615,19 @@
         <v>2932453</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2867808</v>
+        <v>2867292</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2999891</v>
+        <v>3000363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6446722121172911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6304606191631754</v>
+        <v>0.6303471346044539</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6594979931721993</v>
+        <v>0.6596016410255199</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>440479</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>418665</v>
+        <v>418585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>464992</v>
+        <v>461262</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7246289908322919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6887435324970038</v>
+        <v>0.6886117473618287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7649549174507296</v>
+        <v>0.7588190730228198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>366</v>
@@ -2979,19 +2979,19 @@
         <v>428605</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>392581</v>
+        <v>399466</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>458407</v>
+        <v>464745</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4709719577236979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4313875396873404</v>
+        <v>0.4389531241943886</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5037205736980888</v>
+        <v>0.5106847367720242</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>830</v>
@@ -3000,19 +3000,19 @@
         <v>869083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>829178</v>
+        <v>831509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>907986</v>
+        <v>908904</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5725523138370437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5462624567999222</v>
+        <v>0.5477982076891964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.598181008577898</v>
+        <v>0.5987859118563323</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>167389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142876</v>
+        <v>146606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189203</v>
+        <v>189283</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.275371009167708</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2350450825492703</v>
+        <v>0.2411809269771803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3112564675029961</v>
+        <v>0.3113882526381712</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>443</v>
@@ -3050,19 +3050,19 @@
         <v>481438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>451636</v>
+        <v>445298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>517462</v>
+        <v>510577</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5290280422763022</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4962794263019113</v>
+        <v>0.4893152632279759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5686124603126597</v>
+        <v>0.5610468758056116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>603</v>
@@ -3071,19 +3071,19 @@
         <v>648828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609925</v>
+        <v>609007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>688733</v>
+        <v>686402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4274476861629562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4018189914221019</v>
+        <v>0.4012140881436677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4537375432000778</v>
+        <v>0.4522017923108036</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>388530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>354482</v>
+        <v>358928</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>422776</v>
+        <v>422526</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3431954801421756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3131205355882432</v>
+        <v>0.3170473498634613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3734459677317199</v>
+        <v>0.3732249226000137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>227</v>
@@ -3196,19 +3196,19 @@
         <v>259214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>231961</v>
+        <v>226700</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>289530</v>
+        <v>288159</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1988599933503598</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1779530794822272</v>
+        <v>0.1739165748873157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2221178276075249</v>
+        <v>0.2210656789140841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>598</v>
@@ -3217,19 +3217,19 @@
         <v>647743</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>603768</v>
+        <v>605907</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>691370</v>
+        <v>696793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2659489819863447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2478935728693145</v>
+        <v>0.2487721349525582</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2838611331395955</v>
+        <v>0.2860876055667759</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>743565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>709319</v>
+        <v>709569</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>777613</v>
+        <v>773167</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6568045198578244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6265540322682801</v>
+        <v>0.6267750773999863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6868794644117567</v>
+        <v>0.6829526501365387</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1012</v>
@@ -3267,19 +3267,19 @@
         <v>1044284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1013968</v>
+        <v>1015339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1071537</v>
+        <v>1076798</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8011400066496402</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7778821723924746</v>
+        <v>0.778934321085916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8220469205177727</v>
+        <v>0.8260834251126847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1711</v>
@@ -3288,19 +3288,19 @@
         <v>1787849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1744222</v>
+        <v>1738799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1831824</v>
+        <v>1829685</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7340510180136554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7161388668604046</v>
+        <v>0.7139123944332241</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7521064271306857</v>
+        <v>0.7512278650474419</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>69302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55758</v>
+        <v>55245</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83700</v>
+        <v>82871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3590403535620937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2888697892334457</v>
+        <v>0.286213645798602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4336329264845019</v>
+        <v>0.4293370776181984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3413,19 +3413,19 @@
         <v>52776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41256</v>
+        <v>39217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67554</v>
+        <v>67059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2224692765602154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.173908242501448</v>
+        <v>0.1653116024001322</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2847599135238866</v>
+        <v>0.2826738241856448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -3434,19 +3434,19 @@
         <v>122078</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102061</v>
+        <v>103733</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141926</v>
+        <v>141795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2837382291747585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.237214277877794</v>
+        <v>0.2411004982547622</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3298680411117145</v>
+        <v>0.3295635474538534</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>123718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109320</v>
+        <v>110149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137262</v>
+        <v>137775</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6409596464379063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5663670735154981</v>
+        <v>0.5706629223818015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7111302107665542</v>
+        <v>0.7137863542013978</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>179</v>
@@ -3484,19 +3484,19 @@
         <v>184454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169676</v>
+        <v>170171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>195974</v>
+        <v>198013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7775307234397846</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7152400864761138</v>
+        <v>0.7173261758143525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8260917574985521</v>
+        <v>0.834688397599867</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>292</v>
@@ -3505,19 +3505,19 @@
         <v>308172</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>288324</v>
+        <v>288455</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>328189</v>
+        <v>326517</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7162617708252415</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6701319588882855</v>
+        <v>0.6704364525461466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7627857221222062</v>
+        <v>0.7588995017452378</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>898311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>850428</v>
+        <v>851576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>938316</v>
+        <v>941378</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4647276639283811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4399562372993049</v>
+        <v>0.4405499410690029</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4854240452187947</v>
+        <v>0.4870077235316965</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>638</v>
@@ -3630,19 +3630,19 @@
         <v>740595</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>692143</v>
+        <v>696057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>786603</v>
+        <v>791302</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3021885189526116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2824183394340716</v>
+        <v>0.2840154339655017</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3209615731084216</v>
+        <v>0.3228787676384287</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1537</v>
@@ -3651,19 +3651,19 @@
         <v>1638905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1574072</v>
+        <v>1572605</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1707770</v>
+        <v>1704709</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3738589117567863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3590694115342221</v>
+        <v>0.3587348285514594</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3895681009972797</v>
+        <v>0.3888698751058705</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1034672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>994667</v>
+        <v>991605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1082555</v>
+        <v>1081407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5352723360716189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5145759547812053</v>
+        <v>0.5129922764683034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5600437627006949</v>
+        <v>0.559450058930997</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1634</v>
@@ -3701,19 +3701,19 @@
         <v>1710176</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1664168</v>
+        <v>1659469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1758628</v>
+        <v>1754714</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6978114810473883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6790384268915783</v>
+        <v>0.6771212323615712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7175816605659283</v>
+        <v>0.7159845660344982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2606</v>
@@ -3722,19 +3722,19 @@
         <v>2744848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2675983</v>
+        <v>2679044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2809681</v>
+        <v>2811148</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6261410882432138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6104318990027204</v>
+        <v>0.6111301248941295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6409305884657782</v>
+        <v>0.6412651714485406</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>320791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>305538</v>
+        <v>305003</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>336751</v>
+        <v>336334</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7759886326332071</v>
+        <v>0.7759886326332072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.739092262009954</v>
+        <v>0.7377985739236482</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8145957919324306</v>
+        <v>0.8135872679582481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>759</v>
@@ -4086,19 +4086,19 @@
         <v>411773</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>391311</v>
+        <v>390379</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>429736</v>
+        <v>432475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5646198162810867</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5365625878922982</v>
+        <v>0.5352842500969966</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5892495744821075</v>
+        <v>0.5930064937513081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1200</v>
@@ -4107,19 +4107,19 @@
         <v>732564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>705035</v>
+        <v>705259</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>757434</v>
+        <v>758554</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.641087684693316</v>
+        <v>0.6410876846933161</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6169957004375823</v>
+        <v>0.6171915640153386</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6628514840560512</v>
+        <v>0.6638316666479908</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>92605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76645</v>
+        <v>77062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>107858</v>
+        <v>108393</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2240113673667931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1854042080675694</v>
+        <v>0.1864127320417519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2609077379900459</v>
+        <v>0.2622014260763519</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>540</v>
@@ -4157,19 +4157,19 @@
         <v>317520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299557</v>
+        <v>296818</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337982</v>
+        <v>338914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4353801837189132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4107504255178928</v>
+        <v>0.4069935062486918</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.463437412107702</v>
+        <v>0.4647157499030035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>647</v>
@@ -4178,19 +4178,19 @@
         <v>410126</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>385256</v>
+        <v>384136</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437655</v>
+        <v>437431</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.358912315306684</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.337148515943949</v>
+        <v>0.336168333352009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3830042995624177</v>
+        <v>0.3828084359846614</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>427767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>395245</v>
+        <v>392735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>465420</v>
+        <v>462738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4494547368228059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.415283683369587</v>
+        <v>0.4126467400603028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4890166238825291</v>
+        <v>0.486199057140809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>525</v>
@@ -4303,19 +4303,19 @@
         <v>310825</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>285095</v>
+        <v>287244</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>337331</v>
+        <v>338893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2550754814354672</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2339607657336448</v>
+        <v>0.2357243081510014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2768271298202328</v>
+        <v>0.2781088238166047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1055</v>
@@ -4324,19 +4324,19 @@
         <v>738592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>693370</v>
+        <v>698878</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>780870</v>
+        <v>784561</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3403167315172776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3194801354665318</v>
+        <v>0.3220181233682766</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3597969128214583</v>
+        <v>0.3614974879429192</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>523979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486326</v>
+        <v>489008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>556501</v>
+        <v>559011</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5505452631771941</v>
+        <v>0.550545263177194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5109833761174711</v>
+        <v>0.5138009428591909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5847163166304129</v>
+        <v>0.5873532599396971</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1123</v>
@@ -4374,19 +4374,19 @@
         <v>907736</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>881230</v>
+        <v>879668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>933466</v>
+        <v>931317</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7449245185645328</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7231728701797673</v>
+        <v>0.7218911761833955</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7660392342663551</v>
+        <v>0.7642756918489988</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1487</v>
@@ -4395,19 +4395,19 @@
         <v>1431715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1389437</v>
+        <v>1385746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1476937</v>
+        <v>1471429</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6596832684827225</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6402030871785417</v>
+        <v>0.6385025120570809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6805198645334682</v>
+        <v>0.6779818766317234</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>122970</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106792</v>
+        <v>107512</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138899</v>
+        <v>139318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5662321950068322</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4917399453887707</v>
+        <v>0.4950565654753673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6395785723729971</v>
+        <v>0.6415093271660142</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -4520,19 +4520,19 @@
         <v>85674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73471</v>
+        <v>72865</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97755</v>
+        <v>99345</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3455612217069072</v>
+        <v>0.3455612217069073</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2963399960915968</v>
+        <v>0.293897601672188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3942892932565061</v>
+        <v>0.4007028676847297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -4541,19 +4541,19 @@
         <v>208644</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>187453</v>
+        <v>188833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>228447</v>
+        <v>229754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4486007446788659</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4030383340720886</v>
+        <v>0.4060070236859672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4911803036177989</v>
+        <v>0.4939893033649689</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>94202</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78273</v>
+        <v>77854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110380</v>
+        <v>109660</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4337678049931677</v>
+        <v>0.4337678049931676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3604214276270027</v>
+        <v>0.3584906728339852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5082600546112283</v>
+        <v>0.5049434345246321</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -4591,19 +4591,19 @@
         <v>162253</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150172</v>
+        <v>148582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174456</v>
+        <v>175062</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6544387782930928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.605710706743494</v>
+        <v>0.5992971323152702</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7036600039084031</v>
+        <v>0.706102398327812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>285</v>
@@ -4612,19 +4612,19 @@
         <v>256455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>236652</v>
+        <v>235345</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>277646</v>
+        <v>276266</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5513992553211342</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5088196963822009</v>
+        <v>0.506010696635031</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5969616659279107</v>
+        <v>0.5939929763140327</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>871527</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>826172</v>
+        <v>823631</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>918333</v>
+        <v>913860</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5507927940589359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5221291212837691</v>
+        <v>0.5205233334936844</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5803733336500241</v>
+        <v>0.5775466745230451</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1429</v>
@@ -4737,19 +4737,19 @@
         <v>808272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>773785</v>
+        <v>769207</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>849123</v>
+        <v>843010</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3681024596512552</v>
+        <v>0.3681024596512551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3523960732868132</v>
+        <v>0.3503111937929422</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3867065415262689</v>
+        <v>0.3839226392763311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2560</v>
@@ -4758,19 +4758,19 @@
         <v>1679800</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1620690</v>
+        <v>1625210</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1735537</v>
+        <v>1741048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.44461548113858</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4289701350296377</v>
+        <v>0.4301664417287981</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4593680289834658</v>
+        <v>0.4608267396719269</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>710787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>663981</v>
+        <v>668454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>756142</v>
+        <v>758683</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4492072059410641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4196266663499761</v>
+        <v>0.4224533254769547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4778708787162309</v>
+        <v>0.4794766665063153</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1866</v>
@@ -4808,19 +4808,19 @@
         <v>1387509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1346658</v>
+        <v>1352771</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1421996</v>
+        <v>1426574</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6318975403487448</v>
+        <v>0.6318975403487449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6132934584737306</v>
+        <v>0.6160773607236687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6476039267131866</v>
+        <v>0.6496888062070577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2419</v>
@@ -4829,19 +4829,19 @@
         <v>2098296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2042559</v>
+        <v>2037048</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2157406</v>
+        <v>2152886</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5553845188614199</v>
+        <v>0.55538451886142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.540631971016534</v>
+        <v>0.5391732603280732</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5710298649703622</v>
+        <v>0.5698335582712017</v>
       </c>
     </row>
     <row r="15">
